--- a/tc/runtc_sample.xlsx
+++ b/tc/runtc_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\runtc\tc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="tc" sheetId="1" r:id="rId1"/>
     <sheet name="image" sheetId="2" r:id="rId2"/>
     <sheet name="conf" sheetId="3" r:id="rId3"/>
-    <sheet name="menual" sheetId="4" r:id="rId4"/>
+    <sheet name="manual" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="테스트" localSheetId="0">"그림 1"</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>REQ-ID</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>시험일</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>시험자</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -134,10 +130,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>메모장_런티씨</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 메모장을 실행한다.
 2. "hi runtc" 내용을 입력한다.
 3. 메모장을 c\에 "runtc.txt"로 저장 후 종료한다.
@@ -145,38 +137,52 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>식별자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모장_런티씨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>메모장_저장</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>시험자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>메모장_종료</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>식별자</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 메모장을 실행한다.
+    <t>바탕화면_아이콘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. 메모장을 실행한다.
     !핫키('win', 'r')    ;  !시간지연(2)
     !입력('notepad')  ;  !키보드누르기('enter')  ; !시간지연(1)
 2. "hi runtc" 내용을 입력한다.
     !입력('hi runtc!')         ; !시간지연(1)
     !키보드누르기('enter')  ; !시간지연(1)
 3. 메모장을 바탕화면에 "runtc.txt"로 저장 후 종료한다.
-   !클릭("#메모장_파일", 0.5)   ;  !시간지연(1)
-   !클릭("#메모장_저장", 0.7)   ;  !시간지연(1)
-   !입력('c:\runtc.txt')           ;  !시간지연(1)
-   !키보드누르기('enter')       ;  !시간지연(1)
-   !클릭(#메모장_종료)         ;  !시간지연(1)
+   !클릭("#메모장_파일 &gt; #메모장_저장")  !시간지연(1)
+   !핫키('alt', 'n') ;    !핫키('alt', 'n')
+   !핫키('alt', 'n'); !시간지연(2)
+   !입력('runtc.txt') ; !키보드누르기('enter') ;  !시간지연(1)
+   !핫키('alt', 'd') ; !시간지연(1)
+   !클릭(#메모장_파일 &gt; #메모장_종료)         ;  !시간지연(1)
 4. 저장된 "runtc.txt"를 열어본다.
     !핫키('win', 'r') ;  !시간지연(1)
     !입력('c:\') ; !키보드누르기('enter')  ; !시간지연(2)
-    !더블클릭(#메모장_런티씨)</t>
+    !클릭("#바탕화면_아이콘")   ;  !시간지연(1)
+    !더블클릭("#메모장_런티씨")</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,14 +366,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -834,7 +832,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -900,19 +898,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>465426</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>198759</xdr:rowOff>
+      <xdr:colOff>819260</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228628</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="메모장_파일"/>
+        <xdr:cNvPr id="8" name="바탕화면_아이콘"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -925,8 +923,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="306457"/>
-          <a:ext cx="457143" cy="190476"/>
+          <a:off x="1304925" y="1724025"/>
+          <a:ext cx="790685" cy="200053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -938,54 +936,37 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>503583</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>228823</xdr:rowOff>
+      <xdr:colOff>628734</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="메모장_저장"/>
+        <xdr:cNvPr id="9" name="메모장_종료"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="662609"/>
-          <a:ext cx="495300" cy="220540"/>
+          <a:off x="1304925" y="1362075"/>
+          <a:ext cx="600159" cy="181000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -993,19 +974,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>13061</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>408283</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>303520</xdr:rowOff>
+      <xdr:colOff>542997</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228628</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="메모장_종료"/>
+        <xdr:cNvPr id="10" name="메모장_런티씨"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1018,8 +999,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="1338278"/>
-          <a:ext cx="400000" cy="290459"/>
+          <a:off x="1304925" y="1019175"/>
+          <a:ext cx="514422" cy="200053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1031,54 +1012,75 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>665508</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>247873</xdr:rowOff>
+      <xdr:colOff>2324420</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>257207</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="메모장_런티씨"/>
+        <xdr:cNvPr id="11" name="메모장_저장"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="993913"/>
-          <a:ext cx="657225" cy="239590"/>
+          <a:off x="1304925" y="685800"/>
+          <a:ext cx="2295845" cy="228632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485718</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>219051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="메모장_파일"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="333375"/>
+          <a:ext cx="457143" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1392,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1413,10 +1415,11 @@
     <col min="13" max="13" width="48.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="16" max="16" width="29.125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -1451,10 +1454,10 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>8</v>
@@ -1463,44 +1466,46 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="225" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="264" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1517,7 +1522,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1534,7 +1539,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1547,13 +1552,11 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3">
-        <v>3</v>
-      </c>
+      <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1566,13 +1569,11 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="3">
-        <v>4</v>
-      </c>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1589,7 +1590,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1606,7 +1607,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1623,7 +1624,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1640,7 +1641,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1657,7 +1658,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1674,7 +1675,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1691,7 +1692,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1708,7 +1709,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1725,7 +1726,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2142,54 +2143,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="35.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="2:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2221,38 +2230,38 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tc/runtc_sample.xlsx
+++ b/tc/runtc_sample.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>REQ-ID</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -165,24 +165,30 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>runtc.txt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작버튼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> 1. 메모장을 실행한다.
-    !핫키('win', 'r')    ;  !시간지연(2)
-    !입력('notepad')  ;  !키보드누르기('enter')  ; !시간지연(1)
+    !핫키('win', 'r') 
+    !입력('notepad')  ;  !키보드누르기('enter')
 2. "hi runtc" 내용을 입력한다.
-    !입력('hi runtc!')         ; !시간지연(1)
-    !키보드누르기('enter')  ; !시간지연(1)
+    !입력('hi runtc!') ;  !키보드누르기('enter') ; 시간지연(5)
 3. 메모장을 바탕화면에 "runtc.txt"로 저장 후 종료한다.
-   !클릭("#메모장_파일 &gt; #메모장_저장")  !시간지연(1)
+   !클릭("#메모장_파일 &gt; #메모장_저장")
    !핫키('alt', 'n') ;    !핫키('alt', 'n')
-   !핫키('alt', 'n'); !시간지연(2)
-   !입력('runtc.txt') ; !키보드누르기('enter') ;  !시간지연(1)
-   !핫키('alt', 'd') ; !시간지연(1)
-   !클릭(#메모장_파일 &gt; #메모장_종료)         ;  !시간지연(1)
+   !핫키('alt', 'n')
+   !입력('%userprofile%\Desktop\runtc.txt') ; !키보드누르기('enter')
+   !핫키('alt', 'd')
+   !클릭(#메모장_파일 &gt; #메모장_종료)
 4. 저장된 "runtc.txt"를 열어본다.
-    !핫키('win', 'r') ;  !시간지연(1)
-    !입력('c:\') ; !키보드누르기('enter')  ; !시간지연(2)
-    !클릭("#바탕화면_아이콘")   ;  !시간지연(1)
-    !더블클릭("#메모장_런티씨")</t>
+    !핫키('win', 'r')
+    !입력('%userprofile%\Desktop') ; !키보드누르기('enter'); 시간지연(2)
+    !더블클릭("#메모장_런티씨", 0.8)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1077,6 +1083,44 @@
         <a:xfrm>
           <a:off x="1304925" y="333375"/>
           <a:ext cx="457143" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361991</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="시작버튼"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="2200275"/>
+          <a:ext cx="295316" cy="285790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1466,9 +1510,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="264" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
+    <row r="2" spans="1:17" ht="228" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>19</v>
@@ -1498,7 +1542,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
@@ -2143,9 +2187,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2194,6 +2240,11 @@
         <v>32</v>
       </c>
       <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -2220,7 +2271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
